--- a/performance_summary_symmetric.xlsx
+++ b/performance_summary_symmetric.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADD7D90-E763-F84A-AB5B-21D819E023C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B2405-A9D7-314F-9641-3F296B6FB463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34040" yWindow="820" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-18520" yWindow="1120" windowWidth="24220" windowHeight="15800" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
     <sheet name="params" sheetId="2" r:id="rId2"/>
+    <sheet name="meta_best" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -53,90 +54,6 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>0.6240 ± 0.01012</t>
-  </si>
-  <si>
-    <t>0.6258 ± 0.00771</t>
-  </si>
-  <si>
-    <t>We report models with R &gt; 0.62 here first;</t>
-  </si>
-  <si>
-    <t>RGBoost</t>
-  </si>
-  <si>
-    <t>0.6375 ± 0.00645</t>
-  </si>
-  <si>
-    <t>0.6276 ± 0.00534</t>
-  </si>
-  <si>
-    <t>0.6266 ± 0.00673</t>
-  </si>
-  <si>
-    <t>0.6308 ± 0.00549</t>
-  </si>
-  <si>
-    <t>R break down (random seed)</t>
-  </si>
-  <si>
-    <t>Bushdid    0.125092
-Ravia      0.080492
-Snitz 1    0.065308
-Snitz 2    0.076263</t>
-  </si>
-  <si>
-    <t>0.6365 ± 0.00537</t>
-  </si>
-  <si>
-    <t>0.6269 ± .009665</t>
-  </si>
-  <si>
-    <t>0.6312 ± 0.00829</t>
-  </si>
-  <si>
-    <t>0.6317 ± 0.00576</t>
-  </si>
-  <si>
-    <t>0.6392 ± 0.00638</t>
-  </si>
-  <si>
-    <t>0.6416 ± 0.00499</t>
-  </si>
-  <si>
-    <t>0.6361 ± 0.00561</t>
-  </si>
-  <si>
-    <t>0.6284 ± 0.01121</t>
-  </si>
-  <si>
-    <t>0.6318 ± 0.00469</t>
-  </si>
-  <si>
-    <t>0.6373 ± 0.00796</t>
-  </si>
-  <si>
-    <t>0.6336 ± 0.00975</t>
-  </si>
-  <si>
-    <t>0.6411 ± 0.00607</t>
-  </si>
-  <si>
-    <t>0.64 ± 0.00748</t>
-  </si>
-  <si>
-    <t>0.6298 ± 0.00873</t>
-  </si>
-  <si>
-    <t>0.6349 ± 0.00573</t>
-  </si>
-  <si>
-    <t>0.6323 ± 0.00797</t>
-  </si>
-  <si>
-    <t>0.6342 ± 0.01041</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -161,92 +78,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The reported performance value is obtained by:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 round of random search for hyperparameter sets; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">obtain mean and std for R and RMSE from 5 random seeds of the best hyperparameter sets; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 3) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>report the parameter set with the highest mean.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="14"/>
         <color theme="4"/>
         <rFont val="Calibri"/>
@@ -291,29 +122,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Features</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are constructed by: 1) feature of mixture 1 and mixture 2; 2) L2 distance; 3) cosyne similarity; 4) angle; 5) # shared molecule; 6) total # molecules; 7) # molecules in mixture 1 and 2; if multiple feature sets are used, 2), 3) and 4) are calculated seperately </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="14"/>
         <color theme="4"/>
         <rFont val="Calibri"/>
@@ -672,9 +480,6 @@
   </si>
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
   </si>
   <si>
     <r>
@@ -1229,58 +1034,7 @@
     </r>
   </si>
   <si>
-    <t>For stacked features, I will report mostly &gt; .63</t>
-  </si>
-  <si>
-    <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0, 'n_estimators': 300, 'min_child_weight': 3, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 1.0}</t>
-  </si>
-  <si>
-    <t>0.6341 ± 0.01101</t>
-  </si>
-  <si>
     <t>Leaderboard</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 400, 'min_samples_split': 10, 'min_samples_leaf': 1, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': False}</t>
-  </si>
-  <si>
-    <t>0.6344 ± 0.00898</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 300, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_features': 0.5, 'max_depth': 30, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 300, 'min_samples_split': 10, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 0, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 400, 'min_samples_split': 5, 'min_samples_leaf': 1, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': False}</t>
-  </si>
-  <si>
-    <t>{'subsample': 0.7, 'n_estimators': 400, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 250, 'min_samples_split': 10, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>{'subsample': 0.5, 'n_estimators': 300, 'max_depth': 7, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': 10, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>Bushdid    0.118434
-Ravia      0.098279
-Snitz 1    0.066827
-Snitz 2    0.077048</t>
-  </si>
-  <si>
-    <t>{'subsample': 0.5, 'n_estimators': 250, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
-  </si>
-  <si>
-    <t>0.6323 ± 0.00407</t>
   </si>
   <si>
     <r>
@@ -1339,39 +1093,6 @@
     </r>
   </si>
   <si>
-    <t>0.6371 ± 0.00757</t>
-  </si>
-  <si>
-    <t>0.6513 ± 0.00747</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>0.6453 ± 0.01029</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 250, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
-  </si>
-  <si>
-    <t>0.6433 ± 0.00828</t>
-  </si>
-  <si>
-    <t>0.6376 ± 0.00964</t>
-  </si>
-  <si>
-    <t>0.6500 ± 0.00654</t>
-  </si>
-  <si>
-    <t>0.6385 ± 0.00491</t>
-  </si>
-  <si>
-    <t>{'subsample': 0.7, 'n_estimators': 300, 'max_depth': 9, 'learning_rate': 0.01, 'colsample_bytree': 0.5}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1572,12 +1293,6 @@
     </r>
   </si>
   <si>
-    <t>{'n_estimators': 500, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_features': 0.5, 'max_depth': 20, 'bootstrap': False}</t>
-  </si>
-  <si>
-    <t>0.6478 ± 0.00752</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -1598,29 +1313,174 @@
     </r>
   </si>
   <si>
-    <t>0.6471 ± 0.00675</t>
-  </si>
-  <si>
-    <t>{'subsample': 1.0, 'reg_lambda': 1, 'reg_alpha': 0, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.01, 'colsample_bytree': 0.7}</t>
-  </si>
-  <si>
     <t>XGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'n_estimators': 700, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6370 ± 0.0061</t>
+  </si>
+  <si>
+    <t>0.6403 ± 0.0078</t>
+  </si>
+  <si>
+    <t>0.6549 ± 0.0083</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 800, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 30, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 700, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6496 ± 0.0070</t>
+  </si>
+  <si>
+    <t>0.6502 ± 0.0084</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 800, 'min_samples_split': 5, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>We report after averaged score, for the entire training dataset</t>
+  </si>
+  <si>
+    <t>0.6558 ± 0.0076</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 400, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>non-sym Leaderboard</t>
+  </si>
+  <si>
+    <t>10 fold CV</t>
+  </si>
+  <si>
+    <t>Leffingwell + AtomPairs(50), summed to get mixture</t>
+  </si>
+  <si>
+    <t>Leffingwell + AtomPairs(100), summed to get mixture</t>
+  </si>
+  <si>
+    <t>0.6489 ± 0.0055</t>
+  </si>
+  <si>
+    <t>0.6457 ± 0.0054</t>
+  </si>
+  <si>
+    <t>0.6429 ± 0.0038</t>
+  </si>
+  <si>
+    <t>Leffingwell + AtomPairs(200), summed to get mixture</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 400, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>Leffingwell + AtomPairs(100), averaged to get mixture</t>
+  </si>
+  <si>
+    <t>0.6406 ± 0.0049</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>Leffingwell + Morgan(200), summed to get mixture</t>
+  </si>
+  <si>
+    <t>0.6460 ± 0.0065</t>
+  </si>
+  <si>
+    <t>Leffingwell + TopologicalTorsions(50), summed to get mixture</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 800, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>0.6432 ± 0.0053</t>
+  </si>
+  <si>
+    <t>Leffingwell + TopologicalTorsions(100), summed to get mixture</t>
+  </si>
+  <si>
+    <t>0.6412 ± 0.0065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'n_estimators': 800, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
+  </si>
+  <si>
+    <t>Leffingwell + AtomPairs(50) +  TopologicalTorsions(50), summed to get mixture</t>
+  </si>
+  <si>
+    <t>0.6473 ± 0.0059</t>
+  </si>
+  <si>
+    <t>* Haven't tested.these as I don't think think they'd be better than Deepnose + selected features</t>
+  </si>
+  <si>
+    <t>ones that looks having good 10 fold CV but did not appear in previous sparse feature models</t>
+  </si>
+  <si>
+    <t>dense\sparse</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1160, Correlation: 0.7092</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1178, Correlation: 0.6954</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1149, Correlation: 0.7184</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1150, Correlation: 0.7162</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1169, Correlation: 0.7018</t>
+  </si>
+  <si>
+    <t>KNN - RMSE: 0.1182, Correlation: 0.6904</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1160, Correlation: 0.7103</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1160, Correlation: 0.7084</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1175, Correlation: 0.6984</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1195, Correlation: 0.6837</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1168, Correlation: 0.7038</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1165, Correlation: 0.7059</t>
+  </si>
+  <si>
+    <t>RF - RMSE: 0.1162, Correlation: 0.7036</t>
+  </si>
+  <si>
+    <t>KNN - RMSE: 0.1177, Correlation: 0.6924</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1164, Correlation: 0.7054</t>
+  </si>
+  <si>
+    <t>Ridge - RMSE: 0.1164, Correlation: 0.7055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1710,7 +1570,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,18 +1592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,12 +1652,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1818,11 +1666,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,10 +1680,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1844,27 +1698,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2184,10 +2043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2196,740 +2058,665 @@
     <col min="2" max="2" width="59.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="12" width="10.83203125" style="4"/>
-    <col min="13" max="13" width="38.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="38.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
+      <c r="C1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="24"/>
+      <c r="I1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1239</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>0.122</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1237</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+        <v>0.1216</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.1216</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.1241</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.1242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.1239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.1217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8.1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.12239999999999999</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.12280000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.1231</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.1239</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.1242</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7">
-        <v>0.12189999999999999</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.12180000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.1206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.1203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1">
-        <v>0.12089999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.1217</v>
-      </c>
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.123</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.1212</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.1227</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.12089999999999999</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
+      <c r="B29" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
-        <v>0.1227</v>
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.71799999999999997</v>
       </c>
       <c r="H29" s="1">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="I29" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
+      <c r="B30" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>0.1212</v>
+        <v>0.1198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.1176</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.72399999999999998</v>
       </c>
       <c r="H30" s="1">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="I30" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.1197</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>75</v>
+      <c r="B32" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1">
-        <v>0.1222</v>
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.1187</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.71699999999999997</v>
       </c>
       <c r="H32" s="1">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="I32" s="1">
         <v>0.121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.1208</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
+      <c r="B34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1">
-        <v>0.1211</v>
+        <v>0.1195</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.1172</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.71399999999999997</v>
       </c>
       <c r="H34" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="I34" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="40" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.121</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.1191</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.621</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="40" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.1193</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.1198</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.12239999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.1217</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.6573</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.12590000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="40" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="40" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.1215</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="40" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J5:M5"/>
+  <mergeCells count="9">
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="I3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2938,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2951,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,7 +2754,9 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -3004,10 +2793,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3017,19 +2803,14 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3039,20 +2820,16 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -3061,9 +2838,7 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -3108,9 +2883,7 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -3119,20 +2892,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -3141,9 +2910,7 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
@@ -3152,19 +2919,14 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,7 +2948,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3194,11 +2956,9 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -3208,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3216,10 +2976,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3230,7 +2987,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,10 +2995,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3251,23 +3005,208 @@
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98EF415-D707-3E45-83A8-4884D8B18971}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>37</v>
+      </c>
+      <c r="D1">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/performance_summary_symmetric.xlsx
+++ b/performance_summary_symmetric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B2405-A9D7-314F-9641-3F296B6FB463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85159F8E-EC9F-1642-9DDE-BC2AC8101753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18520" yWindow="1120" windowWidth="24220" windowHeight="15800" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-22600" yWindow="500" windowWidth="24220" windowHeight="15800" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -1358,12 +1358,6 @@
     <t>10 fold CV</t>
   </si>
   <si>
-    <t>Leffingwell + AtomPairs(50), summed to get mixture</t>
-  </si>
-  <si>
-    <t>Leffingwell + AtomPairs(100), summed to get mixture</t>
-  </si>
-  <si>
     <t>0.6489 ± 0.0055</t>
   </si>
   <si>
@@ -1373,48 +1367,30 @@
     <t>0.6429 ± 0.0038</t>
   </si>
   <si>
-    <t>Leffingwell + AtomPairs(200), summed to get mixture</t>
-  </si>
-  <si>
     <t>{'n_estimators': 400, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
   </si>
   <si>
-    <t>Leffingwell + AtomPairs(100), averaged to get mixture</t>
-  </si>
-  <si>
     <t>0.6406 ± 0.0049</t>
   </si>
   <si>
     <t>{'n_estimators': 500, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
   </si>
   <si>
-    <t>Leffingwell + Morgan(200), summed to get mixture</t>
-  </si>
-  <si>
     <t>0.6460 ± 0.0065</t>
   </si>
   <si>
-    <t>Leffingwell + TopologicalTorsions(50), summed to get mixture</t>
-  </si>
-  <si>
     <t>{'n_estimators': 800, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
   </si>
   <si>
     <t>0.6432 ± 0.0053</t>
   </si>
   <si>
-    <t>Leffingwell + TopologicalTorsions(100), summed to get mixture</t>
-  </si>
-  <si>
     <t>0.6412 ± 0.0065</t>
   </si>
   <si>
     <t xml:space="preserve"> {'n_estimators': 800, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': 20, 'bootstrap': True}</t>
   </si>
   <si>
-    <t>Leffingwell + AtomPairs(50) +  TopologicalTorsions(50), summed to get mixture</t>
-  </si>
-  <si>
     <t>0.6473 ± 0.0059</t>
   </si>
   <si>
@@ -1473,13 +1449,431 @@
   </si>
   <si>
     <t>Ridge - RMSE: 0.1164, Correlation: 0.7055</t>
+  </si>
+  <si>
+    <r>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Morgan(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Morgan(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> AtomPairs(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AtomPairs(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AtomPairs(200)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>AtomPairs(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, averaged to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Morgan(200)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> TopologicalTorsions(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TopologicalTorsions(100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Leffingwell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">AtomPairs(50) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>TopologicalTorsions(50)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, summed to get mixture</t>
+    </r>
+  </si>
+  <si>
+    <t>0.6387 ± 0.0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6398 ± 0.0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'n_estimators': 600, 'min_samples_split': 2, 'max_features': 'sqrt', 'max_depth': None, 'bootstrap': True}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,6 +1963,32 @@
       <color rgb="FFFFC000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1652,7 +2072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1686,44 +2106,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2043,13 +2457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2066,34 +2480,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,10 +2526,10 @@
       <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2130,10 +2544,10 @@
       <c r="D3" s="1">
         <v>0.122</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2148,10 +2562,10 @@
       <c r="D4" s="1">
         <v>0.1216</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2160,10 +2574,10 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2172,10 +2586,10 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2208,7 +2622,7 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2226,7 +2640,7 @@
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2235,8 +2649,8 @@
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>69</v>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="40" x14ac:dyDescent="0.25">
@@ -2246,7 +2660,7 @@
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2255,7 +2669,7 @@
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2264,7 +2678,7 @@
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2273,7 +2687,7 @@
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -2363,7 +2777,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2447,7 +2861,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2536,8 +2950,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
-        <v>70</v>
+      <c r="B38" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.25">
@@ -2545,10 +2959,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D39" s="1">
         <v>0.1198</v>
@@ -2570,11 +2984,11 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D40" s="1">
         <v>0.12039999999999999</v>
@@ -2591,10 +3005,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1">
         <v>0.12130000000000001</v>
@@ -2611,10 +3025,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1">
         <v>0.1217</v>
@@ -2631,10 +3045,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1">
         <v>0.12089999999999999</v>
@@ -2651,10 +3065,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D44" s="1">
         <v>0.12089999999999999</v>
@@ -2677,10 +3091,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1">
         <v>0.1215</v>
@@ -2697,26 +3111,57 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1">
         <v>0.12</v>
       </c>
     </row>
+    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="I3:L4"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="I3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2725,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4FF55-9D81-884D-8714-C4C1AFC24CA9}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3044,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,7 +3500,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,8 +3544,33 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3113,7 +3583,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3123,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>35</v>
@@ -3143,16 +3613,16 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,16 +3630,16 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3177,16 +3647,16 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3194,16 +3664,16 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/performance_summary_symmetric.xlsx
+++ b/performance_summary_symmetric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzheng/Desktop/Desktop/DreamRF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85159F8E-EC9F-1642-9DDE-BC2AC8101753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45B668E-FB2C-BC44-A19E-C2546CB86E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22600" yWindow="500" windowWidth="24220" windowHeight="15800" activeTab="2" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
+    <workbookView xWindow="-22600" yWindow="500" windowWidth="24220" windowHeight="15800" xr2:uid="{AFDA7DF5-A5B0-DF43-AC0D-1B85C0444B22}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
@@ -2100,12 +2100,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2136,6 +2130,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2459,11 +2459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02C770D-5589-5740-9957-26D97A0CDE6A}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2480,34 +2480,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2526,16 +2526,16 @@
       <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
     </row>
     <row r="3" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2544,16 +2544,16 @@
       <c r="D3" s="1">
         <v>0.122</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2562,10 +2562,10 @@
       <c r="D4" s="1">
         <v>0.1216</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2574,10 +2574,10 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2586,10 +2586,10 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2619,10 +2619,10 @@
       <c r="A10" s="7">
         <v>8.1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2637,19 +2637,19 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2657,43 +2657,43 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="7"/>
@@ -2711,7 +2711,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7"/>
@@ -2769,7 +2769,7 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2835,7 +2835,7 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2861,7 +2861,7 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2895,7 +2895,7 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2929,7 +2929,7 @@
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3124,7 +3124,7 @@
       <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3138,7 +3138,7 @@
       <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3149,7 +3149,7 @@
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3582,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98EF415-D707-3E45-83A8-4884D8B18971}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
